--- a/public/import/weekly_template(1).xlsx
+++ b/public/import/weekly_template(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9F1BB-259A-4CAB-B520-75AD4FA5D9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3FADA-7FF5-41BD-836E-A08D687261AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -55,9 +55,6 @@
     <t>RESULT</t>
   </si>
   <si>
-    <t>Monitoring alokasi barang all brand,Depo dan retail</t>
-  </si>
-  <si>
     <t>koordinasi dan moitoring pengiriman barang</t>
   </si>
   <si>
@@ -73,25 +70,34 @@
     <t>monitoring po dan pengiriman realme</t>
   </si>
   <si>
-    <t>pengembalian brg project XL</t>
-  </si>
-  <si>
-    <t>monitoring project XL ( penarikan dan tempel kp XL )</t>
-  </si>
-  <si>
-    <t>Report biaya expedisi Mei 2022 all ekspedisi</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>activasi country tecno 700u</t>
-  </si>
-  <si>
-    <t>alokasi program event anniversary</t>
+    <t>cek harga nett brand PIC</t>
+  </si>
+  <si>
+    <t>Monitoring alokasi barang retail</t>
+  </si>
+  <si>
+    <t>Report MTD biaya exspedisi Juli 2022 all ekspedisi</t>
+  </si>
+  <si>
+    <t>review LDU dc retail</t>
+  </si>
+  <si>
+    <t>setting harga LDU DC</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>act tecno</t>
+  </si>
+  <si>
+    <t>monitoring penarikan oppo a16 4gb untuk retur</t>
+  </si>
+  <si>
+    <t>pairing XL dan monitoring pengiriman</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -482,10 +488,10 @@
         <v>2022</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -496,10 +502,10 @@
         <v>2022</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -510,7 +516,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -524,16 +530,16 @@
         <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,10 +547,10 @@
         <v>2022</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -555,10 +561,10 @@
         <v>2022</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -569,10 +575,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -583,10 +589,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -597,10 +603,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -611,10 +617,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -625,12 +631,40 @@
         <v>2022</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
